--- a/example_data/EPA/label_corrected/000100-01324-20180614_2018-12-07_184629.xlsx
+++ b/example_data/EPA/label_corrected/000100-01324-20180614_2018-12-07_184629.xlsx
@@ -598,7 +598,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions || Safety Procedures</t>
+          <t>safety procedures || irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G513" t="inlineStr"/>
